--- a/analysis/NC2022-elections-analysis.xlsx
+++ b/analysis/NC2022-elections-analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/data/NC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD9D5FF-95D3-DE47-85F1-2EC35417005A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418F9BFE-04EA-DB44-A21B-806B88D82711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="560" windowWidth="27640" windowHeight="17440" xr2:uid="{9D213311-35C8-8149-B5BD-866450A37F1E}"/>
   </bookViews>
@@ -200,7 +200,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -255,8 +255,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1274,7 +1274,7 @@
         <v>6.7014001428571444</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" ref="I10:Z10" si="0">AVERAGE(I2:I8)</f>
+        <f t="shared" ref="I10:V10" si="0">AVERAGE(I2:I8)</f>
         <v>3.6925714285714279E-3</v>
       </c>
       <c r="J10" s="6">

--- a/analysis/NC2022-elections-analysis.xlsx
+++ b/analysis/NC2022-elections-analysis.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418F9BFE-04EA-DB44-A21B-806B88D82711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB88FCF-927A-1A48-A93E-54B5D50C08A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="560" windowWidth="27640" windowHeight="17440" xr2:uid="{9D213311-35C8-8149-B5BD-866450A37F1E}"/>
+    <workbookView xWindow="9320" yWindow="6580" windowWidth="27640" windowHeight="17440" xr2:uid="{9D213311-35C8-8149-B5BD-866450A37F1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="NC2022_elections_analysis" localSheetId="0">Sheet1!$A$1:$Z$8</definedName>
+    <definedName name="NC2022_elections_analysis" localSheetId="0">Sheet1!$A$1:$AA$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -183,9 +183,6 @@
     <t>AG2020</t>
   </si>
   <si>
-    <t>AVG</t>
-  </si>
-  <si>
     <t>SEM</t>
   </si>
   <si>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t>RSE</t>
+  </si>
+  <si>
+    <t>MEAN</t>
   </si>
 </sst>
 </file>
@@ -583,10 +583,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AB3508-F448-BA45-B0FD-F644B5D6BA5B}">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -601,10 +604,11 @@
     <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="19" width="6.5" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.83203125" customWidth="1"/>
+    <col min="24" max="27" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -671,20 +675,21 @@
       <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="5"/>
+      <c r="X1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -751,20 +756,21 @@
       <c r="V2" s="8">
         <v>3.1682139999999999</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="8"/>
+      <c r="X2" s="6">
         <v>0.47</v>
       </c>
-      <c r="X2" s="6">
+      <c r="Y2" s="6">
         <v>0.41490899999999997</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="Z2" s="6">
         <v>0.51500000000000001</v>
       </c>
-      <c r="Z2" s="6">
+      <c r="AA2" s="6">
         <v>0.53923399999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -831,20 +837,21 @@
       <c r="V3" s="8">
         <v>2.9546109999999999</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="8"/>
+      <c r="X3" s="6">
         <v>0.47</v>
       </c>
-      <c r="X3" s="6">
+      <c r="Y3" s="6">
         <v>0.41522599999999998</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Z3" s="6">
         <v>0.51500000000000001</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="AA3" s="6">
         <v>0.53077099999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -911,20 +918,21 @@
       <c r="V4" s="8">
         <v>2.773323</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="8"/>
+      <c r="X4" s="6">
         <v>0.46</v>
       </c>
-      <c r="X4" s="6">
+      <c r="Y4" s="6">
         <v>0.39558399999999999</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Z4" s="6">
         <v>0.505</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="AA4" s="6">
         <v>0.50760499999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -991,20 +999,21 @@
       <c r="V5" s="8">
         <v>3.2372239999999999</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="8"/>
+      <c r="X5" s="6">
         <v>0.47</v>
       </c>
-      <c r="X5" s="6">
+      <c r="Y5" s="6">
         <v>0.412385</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Z5" s="6">
         <v>0.51500000000000001</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="AA5" s="6">
         <v>0.53950600000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -1071,20 +1080,21 @@
       <c r="V6" s="8">
         <v>3.6427719999999999</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="8"/>
+      <c r="X6" s="6">
         <v>0.45</v>
       </c>
-      <c r="X6" s="6">
+      <c r="Y6" s="6">
         <v>0.34323999999999999</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Z6" s="6">
         <v>0.495</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="AA6" s="6">
         <v>0.48240499999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1151,20 +1161,21 @@
       <c r="V7" s="8">
         <v>3.6105230000000001</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="8"/>
+      <c r="X7" s="6">
         <v>0.5</v>
       </c>
-      <c r="X7" s="6">
+      <c r="Y7" s="6">
         <v>0.49832399999999999</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Z7" s="6">
         <v>0.54500000000000004</v>
       </c>
-      <c r="Z7" s="6">
+      <c r="AA7" s="6">
         <v>0.62992300000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1231,20 +1242,21 @@
       <c r="V8" s="9">
         <v>3.1889110000000001</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W8" s="9"/>
+      <c r="X8" s="7">
         <v>0.48</v>
       </c>
-      <c r="X8" s="7">
+      <c r="Y8" s="7">
         <v>0.44360100000000002</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Z8" s="7">
         <v>0.52500000000000002</v>
       </c>
-      <c r="Z8" s="7">
+      <c r="AA8" s="7">
         <v>0.56820199999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="F9" s="8"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -1260,10 +1272,11 @@
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D10" s="10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E10" s="6">
         <f>AVERAGE(E2:E8)</f>
@@ -1329,22 +1342,23 @@
         <f t="shared" si="0"/>
         <v>3.2250825714285716</v>
       </c>
-      <c r="W10" t="s">
-        <v>37</v>
-      </c>
+      <c r="W10" s="8"/>
       <c r="X10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z10" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D11" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="6">
         <f>STDEV(E2:E8)/SQRT(COUNT(E2:E8))</f>
@@ -1410,10 +1424,11 @@
         <f t="shared" si="1"/>
         <v>0.1200158913415928</v>
       </c>
+      <c r="W11" s="8"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D12" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" ref="E12:F12" si="2">E11/E10</f>
@@ -1479,6 +1494,7 @@
         <f t="shared" si="3"/>
         <v>3.7213277081594526E-2</v>
       </c>
+      <c r="W12" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/analysis/NC2022-elections-analysis.xlsx
+++ b/analysis/NC2022-elections-analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10612"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB88FCF-927A-1A48-A93E-54B5D50C08A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64859009-45F3-E14A-B71B-F93D74085EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9320" yWindow="6580" windowWidth="27640" windowHeight="17440" xr2:uid="{9D213311-35C8-8149-B5BD-866450A37F1E}"/>
+    <workbookView xWindow="1160" yWindow="560" windowWidth="27640" windowHeight="17440" xr2:uid="{9D213311-35C8-8149-B5BD-866450A37F1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -227,7 +227,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -244,6 +244,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -253,8 +262,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -265,6 +272,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,7 +598,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -602,171 +611,172 @@
     <col min="6" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="19" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="18" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3.83203125" customWidth="1"/>
     <col min="24" max="27" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5" t="s">
+      <c r="W1" s="11"/>
+      <c r="X1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>14</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>0.49433300000000002</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>6.7542600000000004</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>7</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>7</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>2.7299999999999998E-3</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>1.0089999999999999E-3</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>0.18129799999999999</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <v>1.1770000000000001E-3</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <v>6.2189999999999997E-3</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="5">
         <v>2.4599999999999999E-3</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <v>1.1886000000000001E-2</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="5">
         <v>7.1349999999999998E-3</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="5">
         <v>3.5599999999999998E-4</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="5">
         <v>6.7790000000000003E-3</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="5">
         <v>-5.574E-3</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="7">
         <v>3.097378</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="7">
         <v>2.6264539999999998</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2" s="7">
         <v>3.1682139999999999</v>
       </c>
-      <c r="W2" s="8"/>
-      <c r="X2" s="6">
+      <c r="W2" s="7"/>
+      <c r="X2" s="5">
         <v>0.47</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="Y2" s="5">
         <v>0.41490899999999997</v>
       </c>
-      <c r="Z2" s="6">
+      <c r="Z2" s="5">
         <v>0.51500000000000001</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AA2" s="5">
         <v>0.53923399999999999</v>
       </c>
     </row>
@@ -783,10 +793,10 @@
       <c r="D3">
         <v>14</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>0.49314400000000003</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>6.6423750000000004</v>
       </c>
       <c r="G3">
@@ -795,59 +805,59 @@
       <c r="H3">
         <v>7</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>8.8109999999999994E-3</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="4">
         <v>3.4659999999999999E-3</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="6">
         <v>1.229868</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="4">
         <v>3.3279999999999998E-3</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="4">
         <v>1.1833E-2</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="4">
         <v>8.4019999999999997E-3</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="4">
         <v>1.8689000000000001E-2</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="4">
         <v>9.0500000000000008E-3</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="4">
         <v>5.5000000000000002E-5</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="4">
         <v>8.9949999999999995E-3</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="4">
         <v>-3.823E-3</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="6">
         <v>3.7258849999999999</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="6">
         <v>2.4298670000000002</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="6">
         <v>2.9546109999999999</v>
       </c>
-      <c r="W3" s="8"/>
-      <c r="X3" s="6">
+      <c r="W3" s="6"/>
+      <c r="X3" s="4">
         <v>0.47</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Y3" s="4">
         <v>0.41522599999999998</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="Z3" s="4">
         <v>0.51500000000000001</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AA3" s="4">
         <v>0.53077099999999999</v>
       </c>
     </row>
@@ -864,10 +874,10 @@
       <c r="D4">
         <v>14</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>0.48094100000000001</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>6.302155</v>
       </c>
       <c r="G4">
@@ -876,59 +886,59 @@
       <c r="H4">
         <v>7</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <v>5.1710000000000002E-3</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="4">
         <v>2.0240000000000002E-3</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="6">
         <v>-2.5586999999999999E-2</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="4">
         <v>4.679E-3</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="4">
         <v>1.1728000000000001E-2</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="4">
         <v>1.7539999999999999E-3</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="4">
         <v>3.0786999999999998E-2</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="4">
         <v>8.3809999999999996E-3</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="4">
         <v>2.3699999999999999E-4</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="4">
         <v>8.1440000000000002E-3</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="4">
         <v>-1.9359000000000001E-2</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="6">
         <v>2.6153559999999998</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="6">
         <v>2.2683369999999998</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="6">
         <v>2.773323</v>
       </c>
-      <c r="W4" s="8"/>
-      <c r="X4" s="6">
+      <c r="W4" s="6"/>
+      <c r="X4" s="4">
         <v>0.46</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Y4" s="4">
         <v>0.39558399999999999</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="Z4" s="4">
         <v>0.505</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AA4" s="4">
         <v>0.50760499999999997</v>
       </c>
     </row>
@@ -945,10 +955,10 @@
       <c r="D5">
         <v>14</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>0.49085200000000001</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>6.5997760000000003</v>
       </c>
       <c r="G5">
@@ -957,59 +967,59 @@
       <c r="H5">
         <v>7</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <v>4.0480000000000004E-3</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="4">
         <v>1.4419999999999999E-3</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="6">
         <v>0.29150900000000002</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="4">
         <v>1.957E-3</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="4">
         <v>1.0291E-2</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="4">
         <v>3.297E-3</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="4">
         <v>1.9439000000000001E-2</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="4">
         <v>8.8140000000000007E-3</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="4">
         <v>4.8099999999999998E-4</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="4">
         <v>8.3320000000000009E-3</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="4">
         <v>-8.9119999999999998E-3</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="6">
         <v>3.1249959999999999</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="6">
         <v>2.6498569999999999</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="6">
         <v>3.2372239999999999</v>
       </c>
-      <c r="W5" s="8"/>
-      <c r="X5" s="6">
+      <c r="W5" s="6"/>
+      <c r="X5" s="4">
         <v>0.47</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Y5" s="4">
         <v>0.412385</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="Z5" s="4">
         <v>0.51500000000000001</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AA5" s="4">
         <v>0.53950600000000004</v>
       </c>
     </row>
@@ -1026,10 +1036,10 @@
       <c r="D6">
         <v>14</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>0.47044399999999997</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>5.7348100000000004</v>
       </c>
       <c r="G6">
@@ -1038,59 +1048,59 @@
       <c r="H6">
         <v>7</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <v>1.585E-3</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <v>4.8299999999999998E-4</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="6">
         <v>-0.152085</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="4">
         <v>4.5570000000000003E-3</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="4">
         <v>3.1259000000000002E-2</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="4">
         <v>-4.4320000000000002E-3</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="4">
         <v>6.0815000000000001E-2</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="4">
         <v>7.2230000000000003E-3</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="4">
         <v>1.3359999999999999E-3</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="4">
         <v>5.8859999999999997E-3</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="4">
         <v>-3.125E-2</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="6">
         <v>3.0576099999999999</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="6">
         <v>2.8363930000000002</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="6">
         <v>3.6427719999999999</v>
       </c>
-      <c r="W6" s="8"/>
-      <c r="X6" s="6">
+      <c r="W6" s="6"/>
+      <c r="X6" s="4">
         <v>0.45</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Y6" s="4">
         <v>0.34323999999999999</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="Z6" s="4">
         <v>0.495</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AA6" s="4">
         <v>0.48240499999999997</v>
       </c>
     </row>
@@ -1107,10 +1117,10 @@
       <c r="D7">
         <v>14</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>0.52287499999999998</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>7.8569370000000003</v>
       </c>
       <c r="G7">
@@ -1119,59 +1129,59 @@
       <c r="H7">
         <v>7</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="4">
         <v>1.676E-3</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="4">
         <v>5.9699999999999998E-4</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <v>6.1559999999999997E-2</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="4">
         <v>5.2909999999999997E-3</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="4">
         <v>-1.546E-2</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="4">
         <v>3.7309999999999999E-3</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="4">
         <v>-3.8335000000000001E-2</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="4">
         <v>4.4010000000000004E-3</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="4">
         <v>1.84E-4</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="4">
         <v>4.2170000000000003E-3</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="4">
         <v>2.2841E-2</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="6">
         <v>2.6758380000000002</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="6">
         <v>2.816017</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="6">
         <v>3.6105230000000001</v>
       </c>
-      <c r="W7" s="8"/>
-      <c r="X7" s="6">
+      <c r="W7" s="6"/>
+      <c r="X7" s="4">
         <v>0.5</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Y7" s="4">
         <v>0.49832399999999999</v>
       </c>
-      <c r="Z7" s="6">
+      <c r="Z7" s="4">
         <v>0.54500000000000004</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AA7" s="4">
         <v>0.62992300000000001</v>
       </c>
     </row>
@@ -1188,10 +1198,10 @@
       <c r="D8" s="3">
         <v>14</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>0.50124299999999999</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <v>7.0194879999999999</v>
       </c>
       <c r="G8" s="3">
@@ -1200,149 +1210,149 @@
       <c r="H8" s="3">
         <v>7</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="5">
         <v>1.8270000000000001E-3</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <v>6.9399999999999996E-4</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="7">
         <v>0.161607</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="5">
         <v>8.1499999999999997E-4</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="5">
         <v>1.0939999999999999E-3</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="5">
         <v>1.8220000000000001E-3</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="5">
         <v>-1.4899999999999999E-4</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="5">
         <v>6.0390000000000001E-3</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="5">
         <v>3.3199999999999999E-4</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="5">
         <v>5.7070000000000003E-3</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="5">
         <v>1.3110000000000001E-3</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="7">
         <v>1.119891</v>
       </c>
-      <c r="U8" s="9">
+      <c r="U8" s="7">
         <v>2.6311810000000002</v>
       </c>
-      <c r="V8" s="9">
+      <c r="V8" s="7">
         <v>3.1889110000000001</v>
       </c>
-      <c r="W8" s="9"/>
-      <c r="X8" s="7">
+      <c r="W8" s="7"/>
+      <c r="X8" s="5">
         <v>0.48</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y8" s="5">
         <v>0.44360100000000002</v>
       </c>
-      <c r="Z8" s="7">
+      <c r="Z8" s="5">
         <v>0.52500000000000002</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AA8" s="5">
         <v>0.56820199999999998</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F9" s="8"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="F9" s="6"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <f>AVERAGE(E2:E8)</f>
         <v>0.49340457142857147</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <f>AVERAGE(F2:F8)</f>
         <v>6.7014001428571444</v>
       </c>
-      <c r="I10" s="6">
-        <f t="shared" ref="I10:V10" si="0">AVERAGE(I2:I8)</f>
-        <v>3.6925714285714279E-3</v>
-      </c>
-      <c r="J10" s="6">
+      <c r="I10" s="4">
+        <f>AVERAGE(I3:I8)</f>
+        <v>3.8530000000000001E-3</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" ref="J10:V10" si="0">AVERAGE(J3:J8)</f>
+        <v>1.451E-3</v>
+      </c>
+      <c r="K10" s="6">
         <f t="shared" si="0"/>
-        <v>1.3878571428571432E-3</v>
-      </c>
-      <c r="K10" s="8">
+        <v>0.26114533333333334</v>
+      </c>
+      <c r="L10" s="4">
         <f t="shared" si="0"/>
-        <v>0.24973857142857142</v>
-      </c>
-      <c r="L10" s="6">
+        <v>3.4378333333333331E-3</v>
+      </c>
+      <c r="M10" s="4">
         <f t="shared" si="0"/>
-        <v>3.1148571428571436E-3</v>
-      </c>
-      <c r="M10" s="6">
+        <v>8.4574999999999997E-3</v>
+      </c>
+      <c r="N10" s="4">
         <f t="shared" si="0"/>
-        <v>8.1377142857142863E-3</v>
-      </c>
-      <c r="N10" s="6">
+        <v>2.4290000000000002E-3</v>
+      </c>
+      <c r="O10" s="4">
         <f t="shared" si="0"/>
-        <v>2.4334285714285716E-3</v>
-      </c>
-      <c r="O10" s="6">
+        <v>1.5207666666666668E-2</v>
+      </c>
+      <c r="P10" s="4">
         <f t="shared" si="0"/>
-        <v>1.4733142857142856E-2</v>
-      </c>
-      <c r="P10" s="6">
+        <v>7.3180000000000016E-3</v>
+      </c>
+      <c r="Q10" s="4">
         <f t="shared" si="0"/>
-        <v>7.2918571428571433E-3</v>
-      </c>
-      <c r="Q10" s="6">
+        <v>4.3749999999999995E-4</v>
+      </c>
+      <c r="R10" s="4">
         <f t="shared" si="0"/>
-        <v>4.2585714285714281E-4</v>
-      </c>
-      <c r="R10" s="6">
+        <v>6.8801666666666664E-3</v>
+      </c>
+      <c r="S10" s="4">
         <f t="shared" si="0"/>
-        <v>6.8657142857142866E-3</v>
-      </c>
-      <c r="S10" s="6">
+        <v>-6.5319999999999996E-3</v>
+      </c>
+      <c r="T10" s="6">
         <f t="shared" si="0"/>
-        <v>-6.3951428571428579E-3</v>
-      </c>
-      <c r="T10" s="8">
+        <v>2.7199293333333334</v>
+      </c>
+      <c r="U10" s="6">
         <f t="shared" si="0"/>
-        <v>2.7738505714285711</v>
-      </c>
-      <c r="U10" s="8">
+        <v>2.6052753333333336</v>
+      </c>
+      <c r="V10" s="6">
         <f t="shared" si="0"/>
-        <v>2.6083008571428574</v>
-      </c>
-      <c r="V10" s="8">
-        <f t="shared" si="0"/>
-        <v>3.2250825714285716</v>
-      </c>
-      <c r="W10" s="8"/>
+        <v>3.2345606666666669</v>
+      </c>
+      <c r="W10" s="6"/>
       <c r="X10" t="s">
         <v>36</v>
       </c>
@@ -1357,144 +1367,144 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <f>STDEV(E2:E8)/SQRT(COUNT(E2:E8))</f>
         <v>6.2104387424842741E-3</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <f>STDEV(F2:F8)/SQRT(COUNT(F2:F8))</f>
         <v>0.24624533352304881</v>
       </c>
-      <c r="I11" s="6">
-        <f t="shared" ref="I11:V11" si="1">STDEV(I2:I8)/SQRT(COUNT(I2:I8))</f>
-        <v>9.9313967888142902E-4</v>
-      </c>
-      <c r="J11" s="6">
+      <c r="I11" s="4">
+        <f>STDEV(I3:I8)/SQRT(COUNT(I3:I8))</f>
+        <v>1.1596657851869795E-3</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" ref="J11:V11" si="1">STDEV(J3:J8)/SQRT(COUNT(J3:J8))</f>
+        <v>4.7003631065411681E-4</v>
+      </c>
+      <c r="K11" s="6">
         <f t="shared" si="1"/>
-        <v>4.0224012187530282E-4</v>
-      </c>
-      <c r="K11" s="8">
+        <v>0.20347501743599331</v>
+      </c>
+      <c r="L11" s="4">
         <f t="shared" si="1"/>
-        <v>0.1723456713878711</v>
-      </c>
-      <c r="L11" s="6">
+        <v>7.1440979914269879E-4</v>
+      </c>
+      <c r="M11" s="4">
         <f t="shared" si="1"/>
-        <v>6.8474209356069002E-4</v>
-      </c>
-      <c r="M11" s="6">
+        <v>6.2493419213545997E-3</v>
+      </c>
+      <c r="N11" s="4">
         <f t="shared" si="1"/>
-        <v>5.2913300052529122E-3</v>
-      </c>
-      <c r="N11" s="6">
+        <v>1.6933472965303565E-3</v>
+      </c>
+      <c r="O11" s="4">
         <f t="shared" si="1"/>
-        <v>1.431146524346707E-3</v>
-      </c>
-      <c r="O11" s="6">
+        <v>1.3485069162266508E-2</v>
+      </c>
+      <c r="P11" s="4">
         <f t="shared" si="1"/>
-        <v>1.1406837933426414E-2</v>
-      </c>
-      <c r="P11" s="6">
+        <v>7.421043053371946E-4</v>
+      </c>
+      <c r="Q11" s="4">
         <f t="shared" si="1"/>
-        <v>6.2773722241728127E-4</v>
-      </c>
-      <c r="Q11" s="6">
+        <v>1.8895268367151251E-4</v>
+      </c>
+      <c r="R11" s="4">
         <f t="shared" si="1"/>
-        <v>1.601180261960694E-4</v>
-      </c>
-      <c r="R11" s="6">
+        <v>7.666976551708272E-4</v>
+      </c>
+      <c r="S11" s="4">
         <f t="shared" si="1"/>
-        <v>6.4813893698238267E-4</v>
-      </c>
-      <c r="S11" s="6">
+        <v>7.5560137462377169E-3</v>
+      </c>
+      <c r="T11" s="6">
         <f t="shared" si="1"/>
-        <v>6.3874634783358895E-3</v>
-      </c>
-      <c r="T11" s="8">
+        <v>0.35884334261807177</v>
+      </c>
+      <c r="U11" s="6">
         <f t="shared" si="1"/>
-        <v>0.30803414053144484</v>
-      </c>
-      <c r="U11" s="8">
+        <v>9.0329319410575565E-2</v>
+      </c>
+      <c r="V11" s="6">
         <f t="shared" si="1"/>
-        <v>7.6402137485191632E-2</v>
-      </c>
-      <c r="V11" s="8">
-        <f t="shared" si="1"/>
-        <v>0.1200158913415928</v>
-      </c>
-      <c r="W11" s="8"/>
+        <v>0.14156119468005507</v>
+      </c>
+      <c r="W11" s="6"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <f t="shared" ref="E12:F12" si="2">E11/E10</f>
         <v>1.2586909611524219E-2</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <f t="shared" si="2"/>
         <v>3.6745355936627005E-2</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="4">
         <f>I11/I10</f>
-        <v>0.26895611854572904</v>
-      </c>
-      <c r="J12" s="6">
+        <v>0.30097736443991163</v>
+      </c>
+      <c r="J12" s="4">
         <f t="shared" ref="J12:V12" si="3">J11/J10</f>
-        <v>0.28982818869038796</v>
-      </c>
-      <c r="K12" s="6">
+        <v>0.32393956626748227</v>
+      </c>
+      <c r="K12" s="4">
         <f t="shared" si="3"/>
-        <v>0.6901043375158582</v>
-      </c>
-      <c r="L12" s="6">
+        <v>0.77916390401766056</v>
+      </c>
+      <c r="L12" s="4">
         <f t="shared" si="3"/>
-        <v>0.21983097848673772</v>
-      </c>
-      <c r="M12" s="6">
+        <v>0.20780815411141673</v>
+      </c>
+      <c r="M12" s="4">
         <f t="shared" si="3"/>
-        <v>0.65022312402166949</v>
-      </c>
-      <c r="N12" s="6">
+        <v>0.73891125289442505</v>
+      </c>
+      <c r="N12" s="4">
         <f t="shared" si="3"/>
-        <v>0.58811938889438464</v>
-      </c>
-      <c r="O12" s="6">
+        <v>0.69713762722534223</v>
+      </c>
+      <c r="O12" s="4">
         <f t="shared" si="3"/>
-        <v>0.77422977867184684</v>
-      </c>
-      <c r="P12" s="6">
+        <v>0.88672834944654055</v>
+      </c>
+      <c r="P12" s="4">
         <f t="shared" si="3"/>
-        <v>8.6087427402797026E-2</v>
-      </c>
-      <c r="Q12" s="6">
+        <v>0.1014080767063671</v>
+      </c>
+      <c r="Q12" s="4">
         <f t="shared" si="3"/>
-        <v>0.37598999777674807</v>
-      </c>
-      <c r="R12" s="6">
+        <v>0.43189184839202865</v>
+      </c>
+      <c r="R12" s="4">
         <f t="shared" si="3"/>
-        <v>9.4402258819739446E-2</v>
-      </c>
-      <c r="S12" s="6">
+        <v>0.11143591315677825</v>
+      </c>
+      <c r="S12" s="4">
         <f t="shared" si="3"/>
-        <v>-0.99879918572915205</v>
-      </c>
-      <c r="T12" s="6">
+        <v>-1.1567687915244516</v>
+      </c>
+      <c r="T12" s="4">
         <f t="shared" si="3"/>
-        <v>0.11104929144499771</v>
-      </c>
-      <c r="U12" s="6">
+        <v>0.13193112711435828</v>
+      </c>
+      <c r="U12" s="4">
         <f t="shared" si="3"/>
-        <v>2.9291919019220361E-2</v>
-      </c>
-      <c r="V12" s="6">
+        <v>3.4671697941039969E-2</v>
+      </c>
+      <c r="V12" s="4">
         <f t="shared" si="3"/>
-        <v>3.7213277081594526E-2</v>
-      </c>
-      <c r="W12" s="6"/>
+        <v>4.3765200059128602E-2</v>
+      </c>
+      <c r="W12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
